--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/41.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/41.xlsx
@@ -479,13 +479,13 @@
         <v>-11.29867233332797</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.64344322701973</v>
+        <v>-17.52389723110993</v>
       </c>
       <c r="F2" t="n">
-        <v>3.369923852564401</v>
+        <v>3.611176785419187</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.315856049404362</v>
+        <v>-9.442442215202524</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.63572160109844</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.25312682835836</v>
+        <v>-18.15168482487674</v>
       </c>
       <c r="F3" t="n">
-        <v>3.262429258581542</v>
+        <v>3.508703201488649</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.186908493289479</v>
+        <v>-9.282884587093887</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.946300225360252</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.67838242365636</v>
+        <v>-18.57073627046062</v>
       </c>
       <c r="F4" t="n">
-        <v>3.512677964071451</v>
+        <v>3.739478992627635</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.157422892875116</v>
+        <v>-9.240472452523401</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.331601291226447</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.45646297751901</v>
+        <v>-19.36505810513516</v>
       </c>
       <c r="F5" t="n">
-        <v>3.756077170940812</v>
+        <v>3.988036101741591</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.109525292599949</v>
+        <v>-9.13369165354311</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.777723339894219</v>
       </c>
       <c r="E6" t="n">
-        <v>-20.00286327397229</v>
+        <v>-19.94362317776588</v>
       </c>
       <c r="F6" t="n">
-        <v>3.819604926169505</v>
+        <v>4.075754662947779</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.53768749341811</v>
+        <v>-8.547333503966533</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.308455923249442</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.68576464214983</v>
+        <v>-20.63305137011076</v>
       </c>
       <c r="F7" t="n">
-        <v>3.973383748161447</v>
+        <v>4.220635492441937</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.356960465575732</v>
+        <v>-8.378613876989299</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.921915821416145</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.22670880693964</v>
+        <v>-21.16728292847229</v>
       </c>
       <c r="F8" t="n">
-        <v>4.140089104309514</v>
+        <v>4.358945496706961</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.029005884943077</v>
+        <v>-8.045413391988443</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.616696712360447</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.7097622414183</v>
+        <v>-21.6572298626333</v>
       </c>
       <c r="F9" t="n">
-        <v>4.26663615805274</v>
+        <v>4.483008934961795</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.361228568570549</v>
+        <v>-8.372952407037412</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.388950208776889</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.3562307304236</v>
+        <v>-22.33996500457737</v>
       </c>
       <c r="F10" t="n">
-        <v>4.65960475200163</v>
+        <v>4.870570287315877</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.156736078348098</v>
+        <v>-8.121095218288287</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.218581964652422</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.19991686743338</v>
+        <v>-23.19555587330809</v>
       </c>
       <c r="F11" t="n">
-        <v>4.821768220770331</v>
+        <v>5.039074797990967</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.748337778727224</v>
+        <v>-7.685162031992949</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.10200646855676</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.9703461255493</v>
+        <v>-23.96792606715018</v>
       </c>
       <c r="F12" t="n">
-        <v>5.16817880232559</v>
+        <v>5.368031625031339</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.200338777028461</v>
+        <v>-7.125835201383545</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.012969345854685</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.52785913461108</v>
+        <v>-24.52470572518192</v>
       </c>
       <c r="F13" t="n">
-        <v>5.937390697731654</v>
+        <v>6.146366407251066</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.961955691204555</v>
+        <v>-6.858553195969304</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.947375879107271</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.69678156443551</v>
+        <v>-25.69920162283463</v>
       </c>
       <c r="F14" t="n">
-        <v>6.078487435910819</v>
+        <v>6.28592799727402</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.488225592821098</v>
+        <v>-6.348184880125186</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.883117566585106</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.06339841137173</v>
+        <v>-26.08261709736557</v>
       </c>
       <c r="F15" t="n">
-        <v>6.336959450950879</v>
+        <v>6.530808573224056</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.970875775171025</v>
+        <v>-5.851794234913577</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.809685071670726</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.14114330763163</v>
+        <v>-27.11086813260826</v>
       </c>
       <c r="F16" t="n">
-        <v>6.597954193534266</v>
+        <v>6.78412268601952</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.711342845640845</v>
+        <v>-5.605451845910334</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.713996014351562</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.01604330898322</v>
+        <v>-27.96733413356815</v>
       </c>
       <c r="F17" t="n">
-        <v>6.912640009530113</v>
+        <v>7.110830569901111</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.27358117077728</v>
+        <v>-5.162449155685437</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.586250657099983</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.572123839033</v>
+        <v>-28.52663651914322</v>
       </c>
       <c r="F18" t="n">
-        <v>7.320598298532964</v>
+        <v>7.500083518631146</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.120125023238554</v>
+        <v>-5.00675873200853</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.429734203397925</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.49366985490183</v>
+        <v>-29.46262466129692</v>
       </c>
       <c r="F19" t="n">
-        <v>7.437890462277121</v>
+        <v>7.613342251710097</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.953708118495636</v>
+        <v>-4.881204146659288</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.242863386828343</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.97997203444356</v>
+        <v>-29.91926279167365</v>
       </c>
       <c r="F20" t="n">
-        <v>7.620294419474851</v>
+        <v>7.808095840253655</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.781908417192245</v>
+        <v>-4.708407087955045</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.044938488558175</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.82579711195761</v>
+        <v>-30.75930417406414</v>
       </c>
       <c r="F21" t="n">
-        <v>7.940231028845765</v>
+        <v>8.116851290919934</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.683326482727772</v>
+        <v>-4.624858849606336</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.840758203068284</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.0046467611631</v>
+        <v>-30.93136543723491</v>
       </c>
       <c r="F22" t="n">
-        <v>7.953333567249097</v>
+        <v>8.146630231746313</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.861657897205362</v>
+        <v>-4.841896531449291</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.655055217621499</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.49609217592882</v>
+        <v>-31.42351975799633</v>
       </c>
       <c r="F23" t="n">
-        <v>7.972879816703023</v>
+        <v>8.187507218160588</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.644375765019061</v>
+        <v>-4.654471564199239</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.498097679257834</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.52405729520757</v>
+        <v>-31.44135729955028</v>
       </c>
       <c r="F24" t="n">
-        <v>8.348903112851186</v>
+        <v>8.563579404377421</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.825254352074313</v>
+        <v>-4.838845791164336</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.389931078678885</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.63133432838486</v>
+        <v>-31.5297212096629</v>
       </c>
       <c r="F25" t="n">
-        <v>8.291408392096265</v>
+        <v>8.512274166316015</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.625856207007186</v>
+        <v>-4.66161929223867</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.343073546811675</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.55071704965286</v>
+        <v>-31.47725238796717</v>
       </c>
       <c r="F26" t="n">
-        <v>7.921735915868226</v>
+        <v>8.148488054355742</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.645940247216473</v>
+        <v>-4.692962715262461</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.365697761550165</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.66161439241509</v>
+        <v>-31.58713037279765</v>
       </c>
       <c r="F27" t="n">
-        <v>8.101406918227349</v>
+        <v>8.350932050700955</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.414450661074917</v>
+        <v>-4.465433224683107</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.466338976285836</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.37186984495081</v>
+        <v>-31.2948606532866</v>
       </c>
       <c r="F28" t="n">
-        <v>8.086070103685838</v>
+        <v>8.331996927105394</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.60013025287348</v>
+        <v>-4.688723946308846</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.635754214851624</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.12016910442143</v>
+        <v>-31.04337258455593</v>
       </c>
       <c r="F29" t="n">
-        <v>7.909557399762741</v>
+        <v>8.171456608616507</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.466665254413569</v>
+        <v>-4.588548195605759</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.873221086922807</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.38180186240095</v>
+        <v>-31.32484248789796</v>
       </c>
       <c r="F30" t="n">
-        <v>7.545096604854832</v>
+        <v>7.789224273747362</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.722106085196141</v>
+        <v>-4.830040689797023</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.153225895274965</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.10030262501772</v>
+        <v>-31.05514042408459</v>
       </c>
       <c r="F31" t="n">
-        <v>7.61096130536591</v>
+        <v>7.831641297324717</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.654378673068768</v>
+        <v>-4.766156037067045</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.463376389421168</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.89686616027852</v>
+        <v>-30.8353086748172</v>
       </c>
       <c r="F32" t="n">
-        <v>7.466202701043425</v>
+        <v>7.716026062935912</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.820111116850319</v>
+        <v>-4.954461025553141</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.772768774861518</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.37687872342375</v>
+        <v>-30.34239411348797</v>
       </c>
       <c r="F33" t="n">
-        <v>7.52116980524815</v>
+        <v>7.775383495307127</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.674819610779339</v>
+        <v>-4.861095661415666</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.059411709552376</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.98156585068217</v>
+        <v>-29.97815821289593</v>
       </c>
       <c r="F34" t="n">
-        <v>7.522225830731403</v>
+        <v>7.757118165652332</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.730133834471616</v>
+        <v>-4.939334438306906</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.296626841683004</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.70652743587357</v>
+        <v>-29.73039801190129</v>
       </c>
       <c r="F35" t="n">
-        <v>7.619781073753825</v>
+        <v>7.854898302990631</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.653048863200968</v>
+        <v>-4.857986253048308</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.46211933772717</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.37492321161477</v>
+        <v>-29.37521899653022</v>
       </c>
       <c r="F36" t="n">
-        <v>7.715991839887844</v>
+        <v>7.937234067636346</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.793153132986149</v>
+        <v>-5.044081410430559</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.543230922897842</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.2351122822416</v>
+        <v>-29.28376034507084</v>
       </c>
       <c r="F37" t="n">
-        <v>7.842724675892013</v>
+        <v>8.108393309040171</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.863227268409641</v>
+        <v>-5.090507419638783</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.52842425419371</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.59166275497662</v>
+        <v>-28.6523695532431</v>
       </c>
       <c r="F38" t="n">
-        <v>7.625506100794982</v>
+        <v>7.858711728346825</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.848193572293877</v>
+        <v>-5.07804045212815</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.426377003297047</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.25970163321653</v>
+        <v>-28.3280132816645</v>
       </c>
       <c r="F39" t="n">
-        <v>7.524049430292763</v>
+        <v>7.744338301702217</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.961564752530768</v>
+        <v>-5.178973998895609</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.239862690653228</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.8205685919268</v>
+        <v>-27.88913935773871</v>
       </c>
       <c r="F40" t="n">
-        <v>7.567688705586845</v>
+        <v>7.790089627962807</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.784137804323558</v>
+        <v>-5.023777364912261</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.992072159695451</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.59449602539378</v>
+        <v>-27.66264389211171</v>
       </c>
       <c r="F41" t="n">
-        <v>7.339406307949986</v>
+        <v>7.564168620642667</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.286013915239845</v>
+        <v>-5.537294201178673</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.697592071045182</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.93935199370314</v>
+        <v>-27.01255509352146</v>
       </c>
       <c r="F42" t="n">
-        <v>7.249756589031366</v>
+        <v>7.469155661191042</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.036376335608301</v>
+        <v>-5.250490391344841</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.382591402632572</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.58215137399261</v>
+        <v>-26.66382223370442</v>
       </c>
       <c r="F43" t="n">
-        <v>7.235216682609162</v>
+        <v>7.48243909284845</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.121767729545837</v>
+        <v>-5.36743054659458</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.066901267745626</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.99693725202289</v>
+        <v>-26.09049817643504</v>
       </c>
       <c r="F44" t="n">
-        <v>7.332674145494244</v>
+        <v>7.578420075659724</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.241699956998128</v>
+        <v>-5.470221915971466</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.769173709166998</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.29582433326608</v>
+        <v>-25.40154421775625</v>
       </c>
       <c r="F45" t="n">
-        <v>7.391347116904091</v>
+        <v>7.643522091099563</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.305125043082616</v>
+        <v>-5.523512090820839</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.50807776138428</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.98088428891316</v>
+        <v>-25.07711950008151</v>
       </c>
       <c r="F46" t="n">
-        <v>7.241508834446881</v>
+        <v>7.471389937329222</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.197821120367566</v>
+        <v>-5.415870826631973</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.289205010456045</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.75218632569261</v>
+        <v>-24.86201297595099</v>
       </c>
       <c r="F47" t="n">
-        <v>7.352425733236581</v>
+        <v>7.568793621138768</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.09721513706019</v>
+        <v>-5.316697322336603</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.125883104173982</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.33365311483662</v>
+        <v>-24.43128169296205</v>
       </c>
       <c r="F48" t="n">
-        <v>7.320251179045413</v>
+        <v>7.549614047199861</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.05794663390513</v>
+        <v>-5.269904637613361</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.010376580545003</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.53594808741018</v>
+        <v>-23.64051416627975</v>
       </c>
       <c r="F49" t="n">
-        <v>7.600679723924788</v>
+        <v>7.822044176844963</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.195855739607066</v>
+        <v>-5.37800057944085</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.948037838399788</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.48515130606293</v>
+        <v>-23.57117827089316</v>
       </c>
       <c r="F50" t="n">
-        <v>7.336243120507092</v>
+        <v>7.56140633176286</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.224495541833455</v>
+        <v>-5.395185438578056</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.925744709722714</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.81451645611447</v>
+        <v>-22.90450351650691</v>
       </c>
       <c r="F51" t="n">
-        <v>7.426308405009399</v>
+        <v>7.632673384861879</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.032880695698457</v>
+        <v>-5.215846888685881</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.940749922584309</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.30444148068237</v>
+        <v>-22.38831239348429</v>
       </c>
       <c r="F52" t="n">
-        <v>7.275140312684389</v>
+        <v>7.474093558126626</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.237143402598163</v>
+        <v>-5.404186100220047</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.982369315864334</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.94327587640276</v>
+        <v>-22.03431896227845</v>
       </c>
       <c r="F53" t="n">
-        <v>7.650557371981054</v>
+        <v>7.842881124111754</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.17917933718402</v>
+        <v>-5.346603377341522</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.04269957259296</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.19325822195621</v>
+        <v>-21.27880117510662</v>
       </c>
       <c r="F54" t="n">
-        <v>7.602967779138504</v>
+        <v>7.788583813847797</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.196765094884313</v>
+        <v>-5.357559641730278</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.117139556871543</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.91181765265538</v>
+        <v>-21.00251361904352</v>
       </c>
       <c r="F55" t="n">
-        <v>7.415542811888453</v>
+        <v>7.585054457978128</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.39296094045361</v>
+        <v>-5.510492665534245</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.195631917662876</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.39665322107482</v>
+        <v>-20.48859099520715</v>
       </c>
       <c r="F56" t="n">
-        <v>7.292716292370948</v>
+        <v>7.48636985436945</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.418882454861992</v>
+        <v>-5.554039049697856</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.280443305444638</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.12297639467865</v>
+        <v>-20.2026036495201</v>
       </c>
       <c r="F57" t="n">
-        <v>7.22008520635606</v>
+        <v>7.403931420579529</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.693830423043555</v>
+        <v>-5.79524798149084</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.361673512004678</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.66101413582386</v>
+        <v>-19.7115909118621</v>
       </c>
       <c r="F58" t="n">
-        <v>6.851947878284231</v>
+        <v>7.043000488629533</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.977637271667968</v>
+        <v>-6.077461013876637</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.44522640929554</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.1261518955765</v>
+        <v>-19.20029368471326</v>
       </c>
       <c r="F59" t="n">
-        <v>7.159955310899873</v>
+        <v>7.36895546545362</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.848616380450083</v>
+        <v>-5.966788565430284</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.523554492558867</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.69738110434119</v>
+        <v>-18.78571568041261</v>
       </c>
       <c r="F60" t="n">
-        <v>7.017215866413424</v>
+        <v>7.223267949826422</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.11661706987376</v>
+        <v>-6.223930770602543</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.599745076320235</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.39002390963885</v>
+        <v>-18.49298150524921</v>
       </c>
       <c r="F61" t="n">
-        <v>6.728300005613085</v>
+        <v>6.938062845238071</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.170894824110249</v>
+        <v>-6.319222403445582</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.668930103062587</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.04613605562692</v>
+        <v>-18.14121257216781</v>
       </c>
       <c r="F62" t="n">
-        <v>6.854900838431848</v>
+        <v>7.069347346635338</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.183972917479247</v>
+        <v>-6.318029485770055</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.728588762075349</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.47435692452748</v>
+        <v>-17.57720696198677</v>
       </c>
       <c r="F63" t="n">
-        <v>6.699009965473397</v>
+        <v>6.907980785985943</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.067379881717059</v>
+        <v>-6.204438300224153</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.777122177247962</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.51254984617182</v>
+        <v>-17.57931901295328</v>
       </c>
       <c r="F64" t="n">
-        <v>6.513208148503162</v>
+        <v>6.710284015308503</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.21488610789875</v>
+        <v>-6.389883219693104</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.807641165872205</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.27231871575222</v>
+        <v>-17.34602538327783</v>
       </c>
       <c r="F65" t="n">
-        <v>6.684357611893254</v>
+        <v>6.894472460012658</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.174287794875888</v>
+        <v>-6.350917834963791</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.823374321073442</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.23704453120743</v>
+        <v>-17.28847199444051</v>
       </c>
       <c r="F66" t="n">
-        <v>6.610093597584815</v>
+        <v>6.818365290115392</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.243423240980932</v>
+        <v>-6.39164815117206</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.816094049104866</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.07470505819152</v>
+        <v>-17.15544211759175</v>
       </c>
       <c r="F67" t="n">
-        <v>6.451332877595487</v>
+        <v>6.660328143142367</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.308970156045661</v>
+        <v>-6.451611820394771</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.792997155786822</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.75764318485835</v>
+        <v>-16.81215561142445</v>
       </c>
       <c r="F68" t="n">
-        <v>6.359135986099204</v>
+        <v>6.556598084447033</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.50684293097031</v>
+        <v>-6.671890913790492</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.749596094825743</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.5401459363699</v>
+        <v>-16.58089580860564</v>
       </c>
       <c r="F69" t="n">
-        <v>6.470796013932675</v>
+        <v>6.676980100531079</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.175309597311073</v>
+        <v>-6.348091988994715</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.694484027544286</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.38694890619512</v>
+        <v>-16.38784848345864</v>
       </c>
       <c r="F70" t="n">
-        <v>6.424296669621447</v>
+        <v>6.636753352030103</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.093428510303982</v>
+        <v>-6.255401307804874</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.630074870128118</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.45683725935767</v>
+        <v>-16.48726154909048</v>
       </c>
       <c r="F71" t="n">
-        <v>6.30337686278204</v>
+        <v>6.5014843100363</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.808687861367988</v>
+        <v>-6.001060503567357</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.563098980523216</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.41883989798801</v>
+        <v>-16.45047177241695</v>
       </c>
       <c r="F72" t="n">
-        <v>6.223319375336307</v>
+        <v>6.435942283978438</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.771262513801754</v>
+        <v>-5.944044905485396</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.500377835484261</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.39485931930579</v>
+        <v>-16.40335152423362</v>
       </c>
       <c r="F73" t="n">
-        <v>6.256139278433907</v>
+        <v>6.4739249783275</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.896093526134694</v>
+        <v>-6.105132792743376</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.442364959353199</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.5151142212113</v>
+        <v>-16.5007503190363</v>
       </c>
       <c r="F74" t="n">
-        <v>6.170214982747877</v>
+        <v>6.347969494415171</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.559856967869485</v>
+        <v>-5.765464151657593</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.394974705094224</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.82288209249046</v>
+        <v>-16.80521322167343</v>
       </c>
       <c r="F75" t="n">
-        <v>5.95183282401652</v>
+        <v>6.138289767906922</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.599614371711238</v>
+        <v>-5.79499375313376</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.349128695581298</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.8846595832608</v>
+        <v>-16.87889055515784</v>
       </c>
       <c r="F76" t="n">
-        <v>5.846577395178708</v>
+        <v>6.027128418773877</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.416521064545273</v>
+        <v>-5.64193850415812</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.306629093726611</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.04571813647758</v>
+        <v>-17.02624522212666</v>
       </c>
       <c r="F77" t="n">
-        <v>5.818323824494807</v>
+        <v>6.009361767819509</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.233589094605916</v>
+        <v>-5.476386953630646</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.254114249751727</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.49318448997197</v>
+        <v>-17.46977592509318</v>
       </c>
       <c r="F78" t="n">
-        <v>5.738525454413021</v>
+        <v>5.957425847872271</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.820008447706113</v>
+        <v>-5.081976102656016</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.189057769905307</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.61122467176676</v>
+        <v>-17.56841652764006</v>
       </c>
       <c r="F79" t="n">
-        <v>5.822195917933404</v>
+        <v>6.028150221209063</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.624492174091317</v>
+        <v>-4.875244447288518</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.102262235424545</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.02175946738848</v>
+        <v>-18.01380505321601</v>
       </c>
       <c r="F80" t="n">
-        <v>5.489176326186625</v>
+        <v>5.711772808837262</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.16565887963135</v>
+        <v>-4.392895029798689</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.991592118632616</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.85158526993055</v>
+        <v>-18.86254642332618</v>
       </c>
       <c r="F81" t="n">
-        <v>5.594441533038171</v>
+        <v>5.811239653544647</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.024263912033303</v>
+        <v>-4.271833441760141</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.858988011382801</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.59596589945956</v>
+        <v>-19.58991819796518</v>
       </c>
       <c r="F82" t="n">
-        <v>5.350352976200575</v>
+        <v>5.552674747374116</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.914588820987799</v>
+        <v>-4.189424342011423</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.707512827314764</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.33811225285038</v>
+        <v>-20.35848963347168</v>
       </c>
       <c r="F83" t="n">
-        <v>5.027878972265731</v>
+        <v>5.243987742803974</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.817781596016016</v>
+        <v>-4.10279114032969</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.550658043022739</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.47683039825101</v>
+        <v>-21.45997310257388</v>
       </c>
       <c r="F84" t="n">
-        <v>4.91881989608546</v>
+        <v>5.127971609852081</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.470847890725998</v>
+        <v>-3.769453763136562</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.392660504954912</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.50564855829025</v>
+        <v>-22.51273272924041</v>
       </c>
       <c r="F85" t="n">
-        <v>5.024231773143013</v>
+        <v>5.246476247299233</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.53429742184482</v>
+        <v>-3.816574011319888</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.2499124001967</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.32664970343755</v>
+        <v>-23.32401452873628</v>
       </c>
       <c r="F86" t="n">
-        <v>4.677371402955998</v>
+        <v>4.874134373321858</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.465509095227326</v>
+        <v>-3.743326910439769</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.124713843042461</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.05348368732119</v>
+        <v>-24.03850377028096</v>
       </c>
       <c r="F87" t="n">
-        <v>4.414802400161464</v>
+        <v>4.632084532347765</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.438257770951143</v>
+        <v>-3.755534760586455</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.028220984126382</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.37147682552472</v>
+        <v>-25.36731139167411</v>
       </c>
       <c r="F88" t="n">
-        <v>4.494943000723934</v>
+        <v>4.68106260314052</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.36547512572338</v>
+        <v>-3.720226352993595</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.960786906760141</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.79015906015237</v>
+        <v>-26.78721587801849</v>
       </c>
       <c r="F89" t="n">
-        <v>3.98111326801804</v>
+        <v>4.158574439273319</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.362615056706235</v>
+        <v>-3.715601352497494</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.924032509441407</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.14307437440628</v>
+        <v>-28.14799027081096</v>
       </c>
       <c r="F90" t="n">
-        <v>4.146498592312039</v>
+        <v>4.342743327950005</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.35709047894662</v>
+        <v>-3.713792419956735</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.915484393064814</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.98057338228819</v>
+        <v>-29.96417809775999</v>
       </c>
       <c r="F91" t="n">
-        <v>3.661958899745832</v>
+        <v>3.850058549943518</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.677041755338136</v>
+        <v>-4.063903979710249</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.927211997038277</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.67319400517938</v>
+        <v>-31.67862080280166</v>
       </c>
       <c r="F92" t="n">
-        <v>3.344628131034983</v>
+        <v>3.533793584729657</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.734600033182325</v>
+        <v>-4.113630068553641</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.956677761140662</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.3289637388112</v>
+        <v>-33.35244808329643</v>
       </c>
       <c r="F93" t="n">
-        <v>3.04898499678577</v>
+        <v>3.236302405884749</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.092084215291147</v>
+        <v>-4.517985159495575</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.99178097462103</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.23104897190849</v>
+        <v>-35.25416419637527</v>
       </c>
       <c r="F94" t="n">
-        <v>2.609683284759127</v>
+        <v>2.778926035471122</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.105577874243831</v>
+        <v>-4.548766346729671</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.033360708428138</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.42781664940566</v>
+        <v>-37.46721226673925</v>
       </c>
       <c r="F95" t="n">
-        <v>2.034271621557572</v>
+        <v>2.177465743682644</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.306452499384766</v>
+        <v>-4.764855561240445</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.074384928720514</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.36136264169155</v>
+        <v>-39.40152583310326</v>
       </c>
       <c r="F96" t="n">
-        <v>1.834897921524781</v>
+        <v>1.995672912343279</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.601386727638277</v>
+        <v>-5.059178663635592</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.117347726894435</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.45243487973288</v>
+        <v>-41.53088388391939</v>
       </c>
       <c r="F97" t="n">
-        <v>1.251184724663204</v>
+        <v>1.37134673543824</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.035452313310454</v>
+        <v>-5.496294989592724</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.167106517644218</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.38936162026724</v>
+        <v>-43.47932668012877</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8829202824128357</v>
+        <v>1.001195136537242</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.303873457324685</v>
+        <v>-5.786667774439404</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.222699183879799</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.87431425203813</v>
+        <v>-46.00019151184059</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7129246246433361</v>
+        <v>0.8290923168081021</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.608277691879411</v>
+        <v>-6.125353725144937</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.301949219515905</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.43785033568439</v>
+        <v>-48.56313480340423</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.1637036406357156</v>
+        <v>-0.05547569562281941</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.929734782385935</v>
+        <v>-6.423964486562368</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.389072891864869</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.36492572738192</v>
+        <v>-50.48444727825738</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.299916260954833</v>
+        <v>-0.1926758953290536</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.385840011014165</v>
+        <v>-6.886591650351061</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.522479293156888</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.68082627970863</v>
+        <v>-52.80796368103103</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7128515589482033</v>
+        <v>-0.6212462372828179</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.683947204724304</v>
+        <v>-7.195884891772702</v>
       </c>
     </row>
   </sheetData>
